--- a/agreement_participants/springer/agr_participants_springer_current.xlsx
+++ b/agreement_participants/springer/agr_participants_springer_current.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">agr_name</t>
   </si>
@@ -20,247 +20,433 @@
     <t xml:space="preserve">agr_participant</t>
   </si>
   <si>
+    <t xml:space="preserve">agr_inst_tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">cri_inst_name_all</t>
   </si>
   <si>
     <t xml:space="preserve">cri_inst_id</t>
   </si>
   <si>
+    <t xml:space="preserve">edvarda_participant_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">publisher_standard_name</t>
   </si>
   <si>
     <t xml:space="preserve">springer</t>
   </si>
   <si>
+    <t xml:space="preserve">Oslo Nye Høyskole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpringerNature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handelshøyskolen BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diakonhjemmet Sykehus. Medisinsk Bibliotek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diakonsyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diakonhjemmet sykehus</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRID-Arendal</t>
   </si>
   <si>
-    <t xml:space="preserve">SpringerNature</t>
+    <t xml:space="preserve">grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskolen i Molde - Vitenskapelig høgskole i logistikk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">himolde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskolen i Østfold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hioef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høyskolen Kristiania - Ernst G Mortensens Stiftelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høyskolen Kristiania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen På Vestlandet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen på Vestlandet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen i Volda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institutt for energiteknikk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ife</t>
   </si>
   <si>
     <t xml:space="preserve">Havforskningsinstituttet</t>
   </si>
   <si>
-    <t xml:space="preserve">Handelshøyskolen BI</t>
+    <t xml:space="preserve">imr</t>
   </si>
   <si>
     <t xml:space="preserve">Høgskolen I Innlandet</t>
   </si>
   <si>
+    <t xml:space="preserve">inn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Høgskolen i Innlandet</t>
   </si>
   <si>
-    <t xml:space="preserve">Høgskolen i Molde - Vitenskapelig høgskole i logistikk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskolen i Østfold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen i Volda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høyskolen Kristiania - Ernst G Mortensens Stiftelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høyskolen Kristiania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen På Vestlandet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen på Vestlandet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institutt for energiteknikk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meteorologisk institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF Vitenskapelig Høyskole For Teologi, Religion Og Samfunn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF vitenskapelig høyskole for teologi, religion og samfunn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nordlandsforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">nf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges Geotekniske Institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">ngi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges Handelshøyskole</t>
   </si>
   <si>
+    <t xml:space="preserve">nhh</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIBIO</t>
   </si>
   <si>
+    <t xml:space="preserve">nibio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norsk institutt for bioøkonomi</t>
   </si>
   <si>
     <t xml:space="preserve">Norges Idrettshøgskole - Biblioteket</t>
   </si>
   <si>
+    <t xml:space="preserve">nih</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges idrettshøgskole</t>
   </si>
   <si>
     <t xml:space="preserve">NILU - Stiftelsen Norsk Institutt For Luftforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">nilu</t>
+  </si>
+  <si>
     <t xml:space="preserve">NILU - Norsk institutt for luftforskning</t>
   </si>
   <si>
     <t xml:space="preserve">Norsk institutt for naturforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk Institutt For Vannforskning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk institutt for vannforskning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges miljø- og biovitenskapelige universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">nmbu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nofima</t>
   </si>
   <si>
+    <t xml:space="preserve">nofima</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOFIMA</t>
   </si>
   <si>
     <t xml:space="preserve">NORCE Norwegian Research Centre AS</t>
   </si>
   <si>
+    <t xml:space="preserve">norce</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nord Universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">nord</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nord universitet</t>
   </si>
   <si>
     <t xml:space="preserve">Norsk Polarinstitutt</t>
   </si>
   <si>
+    <t xml:space="preserve">npolar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges teknisk-naturvitenskapelige universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">ntnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntnu02</t>
+  </si>
+  <si>
     <t xml:space="preserve">St. Olavs Hospital HF</t>
   </si>
   <si>
-    <t xml:space="preserve">Norsk Institutt For Vannforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norsk institutt for vannforskning</t>
+    <t xml:space="preserve">NUBU - Nasjonalt utviklingssenter for barn og unge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nubu</t>
   </si>
   <si>
     <t xml:space="preserve">OsloMet - Storbyuniversitetet</t>
   </si>
   <si>
+    <t xml:space="preserve">oslomet</t>
+  </si>
+  <si>
     <t xml:space="preserve">OsloMet - storbyuniversitetet</t>
   </si>
   <si>
+    <t xml:space="preserve">Sykehuset Østfold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostfsyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sykehuset Østfold HF</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF AS</t>
   </si>
   <si>
+    <t xml:space="preserve">sintef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINTEF Narvik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef03</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF Energi AS</t>
   </si>
   <si>
+    <t xml:space="preserve">sintef04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINTEF Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef05</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF Manufacturing</t>
   </si>
   <si>
-    <t xml:space="preserve">SINTEF Narvik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINTEF Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykehuset Østfold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykehuset Østfold HF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistisk Sentralbyrå</t>
   </si>
   <si>
+    <t xml:space="preserve">ssb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistisk sentralbyrå</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Arbeidsmiljøinstitutt</t>
   </si>
   <si>
+    <t xml:space="preserve">stami</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statens arbeidsmiljøinstitutt</t>
   </si>
   <si>
+    <t xml:space="preserve">Sykehuset Telemark HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sthf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transportøkonomisk Institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">toei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transportøkonomisk institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">Utdanningsdirektoratet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Agder</t>
   </si>
   <si>
+    <t xml:space="preserve">uia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Bergen</t>
   </si>
   <si>
+    <t xml:space="preserve">uib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uib02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Helse Bergen HF - Haukeland universitetssykehus</t>
   </si>
   <si>
     <t xml:space="preserve">UiO : Universitetsbiblioteket</t>
   </si>
   <si>
+    <t xml:space="preserve">uio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet i Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akershus universitetssykehus HF</t>
   </si>
   <si>
+    <t xml:space="preserve">uio03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oslo universitetssykehus HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Folkehelseinstituttet</t>
   </si>
   <si>
-    <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oslo universitetssykehus HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitetet i Oslo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Universitetet I Stavanger</t>
   </si>
   <si>
+    <t xml:space="preserve">uis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Stavanger</t>
   </si>
   <si>
+    <t xml:space="preserve">uis02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helse Stavanger HF - Stavanger universitetssjukehus </t>
+  </si>
+  <si>
     <t xml:space="preserve">UiT - Norges arktiske universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">uit</t>
+  </si>
+  <si>
     <t xml:space="preserve">UiT Norges arktiske universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">uit02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetssykehuset Nord-Norge HF</t>
   </si>
   <si>
     <t xml:space="preserve">Universitetssenteret på Svalbard</t>
   </si>
   <si>
+    <t xml:space="preserve">unis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet I Sørøst-Norge</t>
   </si>
   <si>
+    <t xml:space="preserve">usn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Sørøst-Norge</t>
   </si>
   <si>
-    <t xml:space="preserve">Utdanningsdirektoratet</t>
+    <t xml:space="preserve">Vestlandsforsking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vf</t>
   </si>
   <si>
     <t xml:space="preserve">Vestre Viken HF</t>
   </si>
   <si>
-    <t xml:space="preserve">Diakonhjemmet Sykehus. Medisinsk Bibliotek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diakonhjemmet sykehus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF Vitenskapelig Høyskole For Teologi, Religion Og Samfunn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF vitenskapelig høyskole for teologi, religion og samfunn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oslo Nye Høyskole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykehuset Telemark HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestlandsforsking</t>
+    <t xml:space="preserve">vvhf</t>
   </si>
 </sst>
 </file>
@@ -608,949 +794,1333 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7431</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>158</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15353</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15359</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>209</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>51025</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
         <v>211</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
+      <c r="F6" t="n">
+        <v>15435</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
         <v>224</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="F7" t="n">
+        <v>15443</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>223</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15444</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1615</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>203</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15449</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>203</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>223</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15450</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
         <v>7492</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
+      <c r="F11" t="n">
+        <v>15451</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7419</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7431</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15454</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7446</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="n">
+        <v>209</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15428</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7452</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7419</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15468</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="n">
-        <v>191</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>190</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15469</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7677</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7446</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15474</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="n">
-        <v>150</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7452</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15477</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7460</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="n">
+        <v>191</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15480</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7511</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7677</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15481</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="n">
-        <v>192</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="n">
+        <v>150</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15485</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7543</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15488</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2057</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7511</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15489</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="n">
-        <v>204</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7464</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15491</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7466</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="n">
+        <v>192</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15493</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="n">
-        <v>194</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7543</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15496</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2057</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50928</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7464</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="n">
+        <v>204</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15499</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="n">
-        <v>215</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7466</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15502</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7401</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="n">
+        <v>194</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15507</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7548</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15507</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7630</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="n">
+        <v>51031</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6228</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="n">
+        <v>215</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15439</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7566</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15510</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6228</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5932</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7401</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7476</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7548</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7482</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7566</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="n">
-        <v>201</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7630</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5932</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15535</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="n">
-        <v>184</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7476</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15537</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1959</v>
+      </c>
+      <c r="F41" t="n">
+        <v>51030</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7502</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7482</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15544</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5737</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
+        <v>108</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" t="n">
+        <v>15546</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="n">
+        <v>201</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15548</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="n">
-        <v>185</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="n">
+        <v>184</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" t="n">
-        <v>217</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" t="n">
-        <v>186</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="n">
+        <v>185</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1902</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1972</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="n">
-        <v>195</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" t="n">
-        <v>222</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5737</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51" t="s">
-        <v>7</v>
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7502</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>217</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" t="n">
-        <v>190</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="n">
+        <v>186</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1620</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1959</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="n">
+        <v>195</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15553</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" t="n">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="n">
+        <v>222</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" t="n">
         <v>7484</v>
       </c>
-      <c r="E57" t="s">
-        <v>7</v>
+      <c r="F58" t="n">
+        <v>24138</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15559</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/agreement_participants/springer/agr_participants_springer_current.xlsx
+++ b/agreement_participants/springer/agr_participants_springer_current.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">agr_name</t>
   </si>
@@ -215,6 +215,15 @@
     <t xml:space="preserve">Norsk institutt for vannforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">NKVTS-Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nkvts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges miljø- og biovitenskapelige universitet</t>
   </si>
   <si>
@@ -302,21 +311,81 @@
     <t xml:space="preserve">sintef03</t>
   </si>
   <si>
+    <t xml:space="preserve">sintef04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef011</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF Energi AS</t>
   </si>
   <si>
-    <t xml:space="preserve">sintef04</t>
+    <t xml:space="preserve">sintef012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef016</t>
   </si>
   <si>
     <t xml:space="preserve">SINTEF Ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">sintef05</t>
+    <t xml:space="preserve">sintef017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef021</t>
   </si>
   <si>
     <t xml:space="preserve">SINTEF Manufacturing</t>
   </si>
   <si>
+    <t xml:space="preserve">sintef022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sykehuset i Vestfold</t>
   </si>
   <si>
@@ -419,6 +488,12 @@
     <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">uio05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folkehelseinstituttet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet I Stavanger</t>
   </si>
   <si>
@@ -428,6 +503,12 @@
     <t xml:space="preserve">Universitetet i Stavanger</t>
   </si>
   <si>
+    <t xml:space="preserve">uis02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helse Stavanger HF - Stavanger universitetssjukehus</t>
+  </si>
+  <si>
     <t xml:space="preserve">UiT - Norges arktiske universitet</t>
   </si>
   <si>
@@ -468,12 +549,6 @@
   </si>
   <si>
     <t xml:space="preserve">vvhf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKVTS-Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
   </si>
 </sst>
 </file>
@@ -880,7 +955,7 @@
         <v>45657</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="3">
@@ -915,7 +990,7 @@
         <v>45657</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="4">
@@ -950,7 +1025,7 @@
         <v>45657</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +1056,7 @@
         <v>45657</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1091,7 @@
         <v>45657</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1126,7 @@
         <v>45657</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="8">
@@ -1086,7 +1161,7 @@
         <v>45657</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="9">
@@ -1121,7 +1196,7 @@
         <v>45657</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1231,7 @@
         <v>45657</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="11">
@@ -1191,7 +1266,7 @@
         <v>45657</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="12">
@@ -1226,7 +1301,7 @@
         <v>45657</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="13">
@@ -1261,7 +1336,7 @@
         <v>45657</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="14">
@@ -1296,7 +1371,7 @@
         <v>45657</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="15">
@@ -1331,7 +1406,7 @@
         <v>45657</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="16">
@@ -1366,7 +1441,7 @@
         <v>45657</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="17">
@@ -1401,7 +1476,7 @@
         <v>45657</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="18">
@@ -1436,7 +1511,7 @@
         <v>45657</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="19">
@@ -1471,7 +1546,7 @@
         <v>45657</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1581,7 @@
         <v>45657</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="21">
@@ -1541,7 +1616,7 @@
         <v>45657</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="22">
@@ -1576,7 +1651,7 @@
         <v>45657</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="23">
@@ -1611,7 +1686,7 @@
         <v>45657</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="24">
@@ -1625,13 +1700,13 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" t="n">
-        <v>192</v>
+        <v>6077</v>
       </c>
       <c r="F24" t="n">
-        <v>15493</v>
+        <v>51035</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1646,7 +1721,7 @@
         <v>45657</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="25">
@@ -1654,19 +1729,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
       <c r="E25" t="n">
-        <v>7543</v>
+        <v>192</v>
       </c>
       <c r="F25" t="n">
-        <v>15496</v>
+        <v>15493</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -1681,7 +1756,7 @@
         <v>45657</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="26">
@@ -1695,13 +1770,13 @@
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>2057</v>
+        <v>7543</v>
       </c>
       <c r="F26" t="n">
-        <v>50928</v>
+        <v>15496</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -1716,7 +1791,7 @@
         <v>45657</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="27">
@@ -1724,19 +1799,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
         <v>75</v>
       </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
       <c r="E27" t="n">
-        <v>204</v>
+        <v>2057</v>
       </c>
       <c r="F27" t="n">
-        <v>15499</v>
+        <v>50928</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1751,7 +1826,7 @@
         <v>45657</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="28">
@@ -1765,13 +1840,13 @@
         <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
-        <v>7466</v>
+        <v>204</v>
       </c>
       <c r="F28" t="n">
-        <v>15502</v>
+        <v>15499</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -1786,7 +1861,7 @@
         <v>45657</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="29">
@@ -1794,19 +1869,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
       <c r="E29" t="n">
-        <v>194</v>
+        <v>7466</v>
       </c>
       <c r="F29" t="n">
-        <v>15507</v>
+        <v>15502</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -1821,7 +1896,7 @@
         <v>45657</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="30">
@@ -1829,16 +1904,16 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>82</v>
       </c>
       <c r="E30" t="n">
-        <v>1920</v>
+        <v>194</v>
       </c>
       <c r="F30" t="n">
         <v>15507</v>
@@ -1856,7 +1931,7 @@
         <v>45657</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="31">
@@ -1864,15 +1939,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1920</v>
+      </c>
       <c r="F31" t="n">
-        <v>51031</v>
+        <v>15507</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -1887,7 +1966,7 @@
         <v>45657</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="32">
@@ -1895,19 +1974,15 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="E32" t="n">
-        <v>215</v>
-      </c>
+      <c r="D32"/>
+      <c r="E32"/>
       <c r="F32" t="n">
-        <v>15439</v>
+        <v>51031</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -1922,7 +1997,7 @@
         <v>45657</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="33">
@@ -1939,10 +2014,10 @@
         <v>90</v>
       </c>
       <c r="E33" t="n">
-        <v>1983</v>
+        <v>215</v>
       </c>
       <c r="F33" t="n">
-        <v>15510</v>
+        <v>15439</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -1957,7 +2032,7 @@
         <v>45657</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="34">
@@ -1974,10 +2049,10 @@
         <v>93</v>
       </c>
       <c r="E34" t="n">
-        <v>6228</v>
+        <v>1983</v>
       </c>
       <c r="F34" t="n">
-        <v>15526</v>
+        <v>15510</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -1992,7 +2067,7 @@
         <v>45657</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="35">
@@ -2000,16 +2075,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E35" t="n">
-        <v>7401</v>
+        <v>6228</v>
       </c>
       <c r="F35" t="n">
         <v>15526</v>
@@ -2027,7 +2102,7 @@
         <v>45657</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="36">
@@ -2035,16 +2110,16 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
       </c>
       <c r="E36" t="n">
-        <v>7548</v>
+        <v>6228</v>
       </c>
       <c r="F36" t="n">
         <v>15526</v>
@@ -2062,7 +2137,7 @@
         <v>45657</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="37">
@@ -2070,16 +2145,16 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" t="n">
-        <v>7566</v>
+        <v>6228</v>
       </c>
       <c r="F37" t="n">
         <v>15526</v>
@@ -2097,7 +2172,7 @@
         <v>45657</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="38">
@@ -2105,16 +2180,16 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
         <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E38" t="n">
-        <v>7630</v>
+        <v>6228</v>
       </c>
       <c r="F38" t="n">
         <v>15526</v>
@@ -2132,7 +2207,7 @@
         <v>45657</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="39">
@@ -2140,19 +2215,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E39" t="n">
-        <v>1958</v>
+        <v>6228</v>
       </c>
       <c r="F39" t="n">
-        <v>15529</v>
+        <v>15526</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -2167,7 +2242,7 @@
         <v>45657</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="40">
@@ -2175,19 +2250,19 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E40" t="n">
-        <v>5932</v>
+        <v>7401</v>
       </c>
       <c r="F40" t="n">
-        <v>15535</v>
+        <v>15526</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -2202,7 +2277,7 @@
         <v>45657</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="41">
@@ -2210,19 +2285,19 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E41" t="n">
-        <v>1965</v>
+        <v>7401</v>
       </c>
       <c r="F41" t="n">
-        <v>15536</v>
+        <v>15526</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
@@ -2237,7 +2312,7 @@
         <v>45657</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="42">
@@ -2245,19 +2320,19 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E42" t="n">
-        <v>7476</v>
+        <v>7401</v>
       </c>
       <c r="F42" t="n">
-        <v>15537</v>
+        <v>15526</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2272,7 +2347,7 @@
         <v>45657</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="43">
@@ -2280,19 +2355,19 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E43" t="n">
-        <v>1959</v>
+        <v>7401</v>
       </c>
       <c r="F43" t="n">
-        <v>51030</v>
+        <v>15526</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2307,7 +2382,7 @@
         <v>45657</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="44">
@@ -2315,19 +2390,19 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E44" t="n">
-        <v>7482</v>
+        <v>7401</v>
       </c>
       <c r="F44" t="n">
-        <v>15544</v>
+        <v>15526</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -2342,7 +2417,7 @@
         <v>45657</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="45">
@@ -2350,15 +2425,19 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45"/>
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7548</v>
+      </c>
       <c r="F45" t="n">
-        <v>15546</v>
+        <v>15526</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -2373,7 +2452,7 @@
         <v>45657</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="46">
@@ -2381,19 +2460,19 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E46" t="n">
-        <v>201</v>
+        <v>7548</v>
       </c>
       <c r="F46" t="n">
-        <v>15548</v>
+        <v>15526</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2408,7 +2487,7 @@
         <v>45657</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="47">
@@ -2416,19 +2495,19 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E47" t="n">
-        <v>184</v>
+        <v>7548</v>
       </c>
       <c r="F47" t="n">
-        <v>15549</v>
+        <v>15526</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -2443,7 +2522,7 @@
         <v>45657</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="48">
@@ -2451,19 +2530,19 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E48" t="n">
-        <v>1936</v>
+        <v>7548</v>
       </c>
       <c r="F48" t="n">
-        <v>15549</v>
+        <v>15526</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -2478,7 +2557,7 @@
         <v>45657</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="49">
@@ -2486,19 +2565,19 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E49" t="n">
-        <v>185</v>
+        <v>7548</v>
       </c>
       <c r="F49" t="n">
-        <v>15550</v>
+        <v>15526</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2513,7 +2592,7 @@
         <v>45657</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="50">
@@ -2521,19 +2600,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E50" t="n">
-        <v>1972</v>
+        <v>7566</v>
       </c>
       <c r="F50" t="n">
-        <v>15550</v>
+        <v>15526</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -2548,7 +2627,7 @@
         <v>45657</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="51">
@@ -2556,19 +2635,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E51" t="n">
-        <v>2012</v>
+        <v>7566</v>
       </c>
       <c r="F51" t="n">
-        <v>15550</v>
+        <v>15526</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -2583,7 +2662,7 @@
         <v>45657</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="52">
@@ -2591,19 +2670,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E52" t="n">
-        <v>5737</v>
+        <v>7566</v>
       </c>
       <c r="F52" t="n">
-        <v>15550</v>
+        <v>15526</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -2618,7 +2697,7 @@
         <v>45657</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="53">
@@ -2626,19 +2705,19 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E53" t="n">
-        <v>217</v>
+        <v>7566</v>
       </c>
       <c r="F53" t="n">
-        <v>15551</v>
+        <v>15526</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -2653,7 +2732,7 @@
         <v>45657</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="54">
@@ -2661,19 +2740,19 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E54" t="n">
-        <v>186</v>
+        <v>7566</v>
       </c>
       <c r="F54" t="n">
-        <v>15552</v>
+        <v>15526</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -2688,7 +2767,7 @@
         <v>45657</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="55">
@@ -2696,19 +2775,19 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E55" t="n">
-        <v>1902</v>
+        <v>7630</v>
       </c>
       <c r="F55" t="n">
-        <v>15552</v>
+        <v>15526</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
@@ -2723,7 +2802,7 @@
         <v>45657</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="56">
@@ -2731,19 +2810,19 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E56" t="n">
-        <v>195</v>
+        <v>7630</v>
       </c>
       <c r="F56" t="n">
-        <v>15553</v>
+        <v>15526</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
@@ -2758,7 +2837,7 @@
         <v>45657</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="57">
@@ -2766,19 +2845,19 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E57" t="n">
-        <v>222</v>
+        <v>7630</v>
       </c>
       <c r="F57" t="n">
-        <v>15447</v>
+        <v>15526</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
@@ -2793,7 +2872,7 @@
         <v>45657</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="58">
@@ -2801,19 +2880,19 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E58" t="n">
-        <v>7484</v>
+        <v>7630</v>
       </c>
       <c r="F58" t="n">
-        <v>24138</v>
+        <v>15526</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
@@ -2828,7 +2907,7 @@
         <v>45657</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="59">
@@ -2836,19 +2915,19 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E59" t="n">
-        <v>2017</v>
+        <v>7630</v>
       </c>
       <c r="F59" t="n">
-        <v>15559</v>
+        <v>15526</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
@@ -2863,7 +2942,7 @@
         <v>45657</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>45040</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="60">
@@ -2871,30 +2950,800 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1958</v>
+      </c>
+      <c r="F60" t="n">
+        <v>15529</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5932</v>
+      </c>
+      <c r="F61" t="n">
+        <v>15535</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1965</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15536</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7476</v>
+      </c>
+      <c r="F63" t="n">
+        <v>15537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1959</v>
+      </c>
+      <c r="F64" t="n">
+        <v>51030</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7482</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15544</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="n">
+        <v>15546</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" t="n">
+        <v>201</v>
+      </c>
+      <c r="F67" t="n">
+        <v>15548</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="n">
+        <v>184</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" t="n">
+        <v>185</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
         <v>152</v>
       </c>
-      <c r="C60"/>
-      <c r="D60" t="s">
+      <c r="D71" t="s">
         <v>153</v>
       </c>
-      <c r="E60" t="n">
-        <v>6077</v>
-      </c>
-      <c r="F60"/>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>45657</v>
-      </c>
-      <c r="K60" s="1" t="n">
-        <v>45040</v>
+      <c r="E71" t="n">
+        <v>1972</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5737</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7502</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" t="n">
+        <v>217</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F76" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" t="n">
+        <v>186</v>
+      </c>
+      <c r="F77" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F78" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" t="n">
+        <v>195</v>
+      </c>
+      <c r="F79" t="n">
+        <v>15553</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" t="n">
+        <v>222</v>
+      </c>
+      <c r="F80" t="n">
+        <v>15447</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7484</v>
+      </c>
+      <c r="F81" t="n">
+        <v>24138</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F82" t="n">
+        <v>15559</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>45271</v>
       </c>
     </row>
   </sheetData>
